--- a/PD2/Data Dictionary2.xlsx
+++ b/PD2/Data Dictionary2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feeble\Documents\GitHub\CS445-Project-Files\PD2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC0E51D-29FA-4CD6-AC02-BAC69A03E577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFE5A29-4446-4B76-AE01-68D41E58E63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="630" windowWidth="20520" windowHeight="14715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary2" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -736,14 +736,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="18" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="21" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,7 +753,9 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="21" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="18" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="19" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1101,18 +1103,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A28" activeCellId="9" sqref="A4:C4 A6:C6 A8:C8 A10:C10 A15:C15 A17:C17 A22:C22 A24:C24 A26:C26 A28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,13 +1125,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1144,21 +1146,21 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1166,21 +1168,21 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1188,21 +1190,21 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1210,32 +1212,32 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1250,21 +1252,21 @@
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1272,32 +1274,32 @@
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1312,21 +1314,21 @@
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1334,21 +1336,21 @@
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="12" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1356,21 +1358,21 @@
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1378,32 +1380,32 @@
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>43</v>
       </c>
     </row>
